--- a/paperlist.xlsx
+++ b/paperlist.xlsx
@@ -204,7 +204,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,6 +256,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -298,7 +307,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -314,6 +323,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -598,7 +608,7 @@
   <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -625,11 +635,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
     </row>

--- a/paperlist.xlsx
+++ b/paperlist.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>Essay</t>
   </si>
@@ -198,13 +198,34 @@
   </si>
   <si>
     <t>Blockchain for Electronic Governance: Is Blockchain Hashing an Effective Method?</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>略</t>
+  </si>
+  <si>
+    <t>考虑了几个model的可移植性，在具体问题中可以参考，但参考意义不大</t>
+  </si>
+  <si>
+    <t>介绍了一种通过agreement statement构建图，在从图中寻找MO的方法</t>
+  </si>
+  <si>
+    <t>通过构建贝叶斯网络寻找事件的原因</t>
+  </si>
+  <si>
+    <t>一个规范性文件的QA系统，采用的还是基本的RNN的办法，只是将文本的处理分为两步，先找出匹配段，再从段落中找到对应的答案。倒是文中提到的为段落embedding，找到段落中的答案，生成问句相关的三篇paper比较有学习价值</t>
+  </si>
+  <si>
+    <t>葡萄牙语中的法律概念的提取（可以看作是法律命名实体的识别），一方面依赖一个葡萄牙语的wordnet，同时与PWN保持同步，再加上一些人工手段辅助</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,14 +263,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <i/>
-      <sz val="14"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -257,10 +270,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <i/>
       <sz val="11"/>
-      <color theme="5"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -303,11 +315,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -319,13 +332,13 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Explanatory Text" xfId="2" builtinId="53"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
@@ -608,7 +621,7 @@
   <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -616,6 +629,7 @@
     <col min="1" max="1" width="85.85546875" customWidth="1"/>
     <col min="2" max="2" width="40.5703125" customWidth="1"/>
     <col min="5" max="5" width="7.5703125" customWidth="1"/>
+    <col min="6" max="6" width="33.28515625" customWidth="1"/>
     <col min="11" max="11" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -626,21 +640,30 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="F1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="F2" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" t="s">
         <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -650,28 +673,37 @@
       <c r="B4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="F5" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="F6" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="8" t="s">
         <v>12</v>
       </c>
     </row>
@@ -684,20 +716,20 @@
       </c>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:11" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="5"/>
-    </row>
-    <row r="10" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="8" t="s">
         <v>18</v>
       </c>
     </row>
@@ -736,14 +768,14 @@
       </c>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:11" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K15" s="5"/>
+      <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -753,7 +785,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -761,7 +793,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -769,18 +801,21 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+    <row r="20" spans="1:6" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F20" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -788,7 +823,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -796,7 +831,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -804,7 +839,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -812,7 +847,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -820,7 +855,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -828,7 +863,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -837,7 +872,7 @@
       </c>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>53</v>
       </c>
@@ -846,7 +881,7 @@
       </c>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>55</v>
       </c>
@@ -854,7 +889,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>57</v>
       </c>
@@ -863,7 +898,7 @@
       </c>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E31" s="2"/>
     </row>
     <row r="33" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">

--- a/paperlist.xlsx
+++ b/paperlist.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13650"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -621,7 +621,7 @@
   <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -805,7 +805,7 @@
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:6" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="7" t="s">
